--- a/qa-browser-results.xlsx
+++ b/qa-browser-results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Feature</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Job Count</t>
   </si>
   <si>
-    <t>Cities/Locations Mentioned</t>
-  </si>
-  <si>
-    <t>Example Titles/Findings</t>
+    <t>Location(s)</t>
+  </si>
+  <si>
+    <t>Example Roles</t>
   </si>
   <si>
     <t>switzerland.feature</t>
@@ -52,22 +52,31 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>No matches found, try another location.</t>
-  </si>
-  <si>
-    <t>All jobs and counts displayed correctly with Switzerland filter applied.</t>
-  </si>
-  <si>
-    <t>Roles span multiple cities.</t>
-  </si>
-  <si>
-    <t>Latveria is an unsupported location for job postings.</t>
-  </si>
-  <si>
-    <t>Berlin, Munich, Frankfurt</t>
-  </si>
-  <si>
-    <t>Enterprise Security Executive (Security Solution Sales); High Performance Computing Engineer; Principle Quantum Software Architect; Member of Technical Staff - Machine Learning, AI Safety</t>
+    <t>No results warning displayed</t>
+  </si>
+  <si>
+    <t>Filtering and job count display work as expected.</t>
+  </si>
+  <si>
+    <t>Roles span multiple cities (e.g., Munich, Berlin, Frankfurt). Filtering and job count display work as expected.</t>
+  </si>
+  <si>
+    <t>No jobs available for Latveria.</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Latveria</t>
+  </si>
+  <si>
+    <t>Enterprise Security Executive, High Performance Computing Engineer, Principle Quantum Software Architect, Member of Technical Staff - Machine Learning, AI Safety</t>
+  </si>
+  <si>
+    <t>Multiple Locations, Germany</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,13 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,7 +497,10 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -503,6 +518,9 @@
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
